--- a/excel/doctor.xlsx
+++ b/excel/doctor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,41 +448,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pred8.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.99963045120239</v>
+        <v>1.931332051753998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pred2.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.99915361404419</v>
+        <v>1.634025014936924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pred0.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05382210365496576</v>
+        <v>0.01000298507278785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pred1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008981491555459797</v>
+        <v>0.007433309656335041</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8.jpg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.007052846922306344</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.002073146606562659</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.001436400089005474</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4.jpg</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.558424429504157e-05</v>
       </c>
     </row>
   </sheetData>

--- a/excel/doctor.xlsx
+++ b/excel/doctor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,81 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>download (1).jpeg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.931332051753998</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>7.jpg</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.634025014936924</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1.jpg</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.01000298507278785</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3.jpg</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.007433309656335041</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>8.jpg</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.007052846922306344</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2.jpg</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.002073146606562659</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6.jpg</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.001436400089005474</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4.jpg</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.558424429504157e-05</v>
+        <v>66.06777906417847</v>
       </c>
     </row>
   </sheetData>
